--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\REPL-Driven-Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\REPL-Driven-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -714,11 +714,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="715280928"/>
-        <c:axId val="561985504"/>
+        <c:axId val="-486104304"/>
+        <c:axId val="-486109744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="715280928"/>
+        <c:axId val="-486104304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,7 +761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561985504"/>
+        <c:crossAx val="-486109744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -769,7 +769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="561985504"/>
+        <c:axId val="-486109744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,7 +820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="715280928"/>
+        <c:crossAx val="-486104304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1745,15 +1745,15 @@
   <dimension ref="B2:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>Jan 1900</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>Feb 1900</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>Mar 1900</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>Apr 1900</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>May 1900</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1899,13 +1899,13 @@
         <v>Jun 1900</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1920,13 +1920,13 @@
         <v>Jul 1900</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="7">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="1"/>
@@ -1941,7 +1941,7 @@
         <v>Aug 1900</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -1962,16 +1962,16 @@
         <v>Sep 1900</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="7">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F12" s="5"/>
       <c r="I12" t="s">
@@ -1988,7 +1988,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>Nov 1900</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>Dec 1900</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
         <v>0</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>Jan 1901</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>1</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>Feb 1901</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>Mar 1901</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>Apr 1901</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>May 1901</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>Jun 1901</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>3</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>5</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>Sep 1901</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>6</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>Oct 1901</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>7</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>Nov 1901</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>8</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>Dec 1901</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>9</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>Jan 1902</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>10</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>Feb 1902</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>11</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>Mar 1902</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
         <v>3</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>Apr 1902</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
         <v>4</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>May 1902</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
         <v>5</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>Jun 1902</v>
       </c>
     </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>Jul 1902</v>
       </c>
     </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
         <v>7</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>Aug 1902</v>
       </c>
     </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I35" t="s">
         <v>8</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
         <v>9</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
         <v>10</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>Nov 1902</v>
       </c>
     </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
         <v>11</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>Dec 1902</v>
       </c>
     </row>
-    <row r="39" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
         <v>0</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>Jan 1903</v>
       </c>
     </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I40" t="s">
         <v>1</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>Feb 1903</v>
       </c>
     </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
         <v>2</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>Mar 1903</v>
       </c>
     </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
         <v>3</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>Apr 1903</v>
       </c>
     </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
         <v>4</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>May 1903</v>
       </c>
     </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
         <v>5</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>Jun 1903</v>
       </c>
     </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I45" t="s">
         <v>6</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>Jul 1903</v>
       </c>
     </row>
-    <row r="46" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I46" t="s">
         <v>7</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I47" t="s">
         <v>8</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>Sep 1903</v>
       </c>
     </row>
-    <row r="48" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I48" t="s">
         <v>9</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I49" t="s">
         <v>10</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>Nov 1903</v>
       </c>
     </row>
-    <row r="50" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
         <v>11</v>
       </c>
